--- a/front-end/src/assets/files/Template.xlsx
+++ b/front-end/src/assets/files/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SmartQuizProject\front-end\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA077143-47E0-437A-861D-6266EAA81998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0064903-B93B-416B-ACB2-7D9B7C9EC8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7B2AD69D-3BEE-49DB-B933-D3DDEC81D611}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Something went wrong</t>
+    <t>Question Template</t>
   </si>
 </sst>
 </file>
@@ -390,7 +390,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
